--- a/data/trans_orig/P34D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34D2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75F784DD-DFEA-42B9-826F-8A1FDD3B8F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62744CFA-F494-43F9-B96F-5A9A4F7C9EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C28013DC-212A-4608-B26B-E32A43035197}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{481F55A1-F4AE-4F8C-B733-4FF7B5EA7699}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
   <si>
     <t>Población según el número de veces al día que realizan alguna actividad física intensa o vigorosa en 2023 (Tasa respuesta: 8,94%)</t>
   </si>
@@ -71,55 +71,55 @@
     <t>2,61%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,10 +131,10 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>1,82%</t>
@@ -143,37 +143,37 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>88,42%</t>
+    <t>91,31%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -182,100 +182,100 @@
     <t>5,1%</t>
   </si>
   <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>8,27%</t>
   </si>
   <si>
     <t>94,9%</t>
   </si>
   <si>
-    <t>89,72%</t>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
     <t>45/54</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,86%</t>
+    <t>4,24%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,14%</t>
+    <t>95,76%</t>
   </si>
   <si>
     <t>96,3%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -284,49 +284,49 @@
     <t>6,4%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>22,37%</t>
+    <t>20,74%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>93,6%</t>
   </si>
   <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>93,18%</t>
   </si>
   <si>
-    <t>77,63%</t>
+    <t>79,26%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -335,7 +335,7 @@
     <t>2,4%</t>
   </si>
   <si>
-    <t>11,13%</t>
+    <t>10,4%</t>
   </si>
   <si>
     <t>0%</t>
@@ -347,13 +347,13 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>11,84%</t>
+    <t>10,07%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>88,87%</t>
+    <t>89,6%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -362,43 +362,55 @@
     <t>98,04%</t>
   </si>
   <si>
-    <t>88,16%</t>
+    <t>89,93%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,28%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>97,72%</t>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEB8951-F06D-435C-BDFE-73E75D33AFC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124F6BF6-164C-438B-B379-88534D4811D0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1325,7 +1337,7 @@
         <v>205</v>
       </c>
       <c r="N11" s="7">
-        <v>196586</v>
+        <v>196587</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>60</v>
@@ -1376,7 +1388,7 @@
         <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>205115</v>
+        <v>205116</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -1870,10 +1882,10 @@
         <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -1885,10 +1897,10 @@
         <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -1897,13 +1909,13 @@
         <v>31769</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,16 +1927,16 @@
         <v>492</v>
       </c>
       <c r="D23" s="7">
-        <v>625928</v>
+        <v>625929</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
         <v>259</v>
@@ -1936,10 +1948,10 @@
         <v>25</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>751</v>
@@ -1948,13 +1960,13 @@
         <v>863012</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,7 +1978,7 @@
         <v>510</v>
       </c>
       <c r="D24" s="7">
-        <v>645028</v>
+        <v>645029</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>28</v>
@@ -2010,7 +2022,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34D2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62744CFA-F494-43F9-B96F-5A9A4F7C9EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77674A33-83F3-414D-806A-5B817372C290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{481F55A1-F4AE-4F8C-B733-4FF7B5EA7699}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54C78AAE-969A-44D9-A2FE-161B2382352E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124F6BF6-164C-438B-B379-88534D4811D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A39CAC-8B09-4F8E-8829-99C92F5BED75}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34D2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77674A33-83F3-414D-806A-5B817372C290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5578A4C7-42F2-4DBC-8832-B49CD4877DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54C78AAE-969A-44D9-A2FE-161B2382352E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8785A91-5746-4290-8734-BB901B72CCFE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
-  <si>
-    <t>Población según el número de veces al día que realizan alguna actividad física intensa o vigorosa en 2023 (Tasa respuesta: 8,94%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="188">
+  <si>
+    <t>Población según el número de veces al día que realizan alguna actividad física intensa o vigorosa en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,58 +68,82 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>2,61%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,289 +152,451 @@
     <t>25/34</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>45/54</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +1011,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A39CAC-8B09-4F8E-8829-99C92F5BED75}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97EAEE1-070B-4C70-A8C4-0A851D1E84D8}">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -985,7 +1171,7 @@
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1000,159 +1186,159 @@
         <v>179104</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>49733</v>
+        <v>49734</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>114</v>
       </c>
       <c r="N5" s="7">
-        <v>228837</v>
+        <v>228838</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
+      <c r="B6" s="5">
+        <v>0</v>
       </c>
       <c r="C6" s="7">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D6" s="7">
-        <v>183906</v>
+        <v>193773</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
+        <v>174</v>
+      </c>
+      <c r="I6" s="7">
+        <v>297793</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="7">
+        <v>258</v>
+      </c>
+      <c r="N6" s="7">
+        <v>491565</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="7">
-        <v>57164</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="7">
-        <v>121</v>
-      </c>
-      <c r="N6" s="7">
-        <v>241070</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>172</v>
+      </c>
+      <c r="D7" s="7">
+        <v>377679</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
+        <v>207</v>
+      </c>
+      <c r="I7" s="7">
+        <v>354957</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="7">
+        <v>379</v>
+      </c>
+      <c r="N7" s="7">
+        <v>732636</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="7">
         <v>2430</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1124</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="7">
-        <v>4</v>
-      </c>
-      <c r="N7" s="7">
-        <v>3554</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>87</v>
-      </c>
-      <c r="D8" s="7">
-        <v>131789</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
@@ -1164,28 +1350,28 @@
         <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>60706</v>
+        <v>1124</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>4</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3554</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="M8" s="7">
-        <v>135</v>
-      </c>
-      <c r="N8" s="7">
-        <v>192495</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>44</v>
@@ -1196,312 +1382,310 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
+      <c r="B9" s="5">
+        <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7">
-        <v>134219</v>
+        <v>131789</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H9" s="7">
+        <v>48</v>
+      </c>
+      <c r="I9" s="7">
+        <v>60706</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="7">
-        <v>61830</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N9" s="7">
-        <v>196049</v>
+        <v>192495</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="D10" s="7">
-        <v>7484</v>
+        <v>294017</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>411</v>
       </c>
       <c r="I10" s="7">
-        <v>1045</v>
+        <v>436747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>622</v>
       </c>
       <c r="N10" s="7">
-        <v>8529</v>
+        <v>730764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="5">
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>301</v>
+      </c>
+      <c r="D11" s="7">
+        <v>428236</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
+        <v>460</v>
+      </c>
+      <c r="I11" s="7">
+        <v>498577</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="7">
+        <v>761</v>
+      </c>
+      <c r="N11" s="7">
+        <v>926813</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7484</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1045</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="7">
+        <v>9</v>
+      </c>
+      <c r="N12" s="7">
+        <v>8529</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C13" s="7">
         <v>128</v>
       </c>
-      <c r="D11" s="7">
-        <v>139382</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="D13" s="7">
+        <v>139381</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="7">
         <v>77</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I13" s="7">
         <v>57205</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="J13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="7">
         <v>205</v>
       </c>
-      <c r="N11" s="7">
-        <v>196587</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
-        <v>135</v>
-      </c>
-      <c r="D12" s="7">
-        <v>146866</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="N13" s="7">
+        <v>196586</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="7">
-        <v>58250</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="7">
-        <v>214</v>
-      </c>
-      <c r="N12" s="7">
-        <v>205116</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>899</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1797</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2695</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>108</v>
+        <v>411</v>
       </c>
       <c r="D14" s="7">
-        <v>109791</v>
+        <v>410386</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
-        <v>64</v>
+        <v>766</v>
       </c>
       <c r="I14" s="7">
-        <v>46798</v>
+        <v>524488</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
-        <v>172</v>
+        <v>1177</v>
       </c>
       <c r="N14" s="7">
-        <v>156589</v>
+        <v>934875</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,102 +1694,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>109</v>
+        <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>110690</v>
+        <v>557252</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>68</v>
+        <v>845</v>
       </c>
       <c r="I15" s="7">
-        <v>48595</v>
+        <v>582738</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>177</v>
+        <v>1391</v>
       </c>
       <c r="N15" s="7">
-        <v>159284</v>
+        <v>1139990</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>2914</v>
+        <v>899</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>1272</v>
+        <v>1797</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>4187</v>
+        <v>2695</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,430 +1798,789 @@
         <v>1</v>
       </c>
       <c r="C17" s="7">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="D17" s="7">
-        <v>42626</v>
+        <v>109791</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I17" s="7">
-        <v>17379</v>
+        <v>46798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N17" s="7">
-        <v>60003</v>
+        <v>156589</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>556</v>
+      </c>
+      <c r="D18" s="7">
+        <v>613300</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1071</v>
+      </c>
+      <c r="I18" s="7">
+        <v>697589</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1627</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1310890</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
-        <v>53</v>
-      </c>
-      <c r="D18" s="7">
-        <v>45540</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="7">
-        <v>31</v>
-      </c>
-      <c r="I18" s="7">
-        <v>18651</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="7">
-        <v>84</v>
-      </c>
-      <c r="N18" s="7">
-        <v>64190</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="C19" s="7">
+        <v>665</v>
+      </c>
+      <c r="D19" s="7">
+        <v>723990</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1139</v>
+      </c>
+      <c r="I19" s="7">
+        <v>746184</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1804</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1470174</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="5">
         <v>2</v>
       </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>570</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>570</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
       <c r="C20" s="7">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>23239</v>
+        <v>2914</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>5263</v>
+        <v>1272</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>28502</v>
+        <v>4187</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
+      <c r="B21" s="5">
+        <v>1</v>
       </c>
       <c r="C21" s="7">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D21" s="7">
-        <v>23809</v>
+        <v>42625</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="H21" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I21" s="7">
-        <v>5263</v>
+        <v>17379</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="M21" s="7">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="N21" s="7">
-        <v>29072</v>
+        <v>60004</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" s="7">
-        <v>18</v>
+        <v>610</v>
       </c>
       <c r="D22" s="7">
-        <v>19100</v>
+        <v>554617</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="I22" s="7">
-        <v>12669</v>
+        <v>575650</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
-        <v>31</v>
+        <v>1580</v>
       </c>
       <c r="N22" s="7">
-        <v>31769</v>
+        <v>1130268</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="5">
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>663</v>
+      </c>
+      <c r="D23" s="7">
+        <v>600157</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1001</v>
+      </c>
+      <c r="I23" s="7">
+        <v>594301</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1664</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1194458</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="C23" s="7">
+      <c r="D24" s="7">
+        <v>570</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>570</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>34</v>
+      </c>
+      <c r="D25" s="7">
+        <v>23238</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="7">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5263</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" s="7">
+        <v>46</v>
+      </c>
+      <c r="N25" s="7">
+        <v>28501</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>993</v>
+      </c>
+      <c r="D26" s="7">
+        <v>673945</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1696</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1021374</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2689</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1695320</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1028</v>
+      </c>
+      <c r="D27" s="7">
+        <v>697754</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1708</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1026637</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="7">
+        <v>2736</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1724392</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>18</v>
+      </c>
+      <c r="D28" s="7">
+        <v>19100</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="7">
+        <v>13</v>
+      </c>
+      <c r="I28" s="7">
+        <v>12669</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M28" s="7">
+        <v>31</v>
+      </c>
+      <c r="N28" s="7">
+        <v>31769</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7">
         <v>492</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D29" s="7">
         <v>625929</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="7">
         <v>259</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I29" s="7">
         <v>237084</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M29" s="7">
         <v>751</v>
       </c>
-      <c r="N23" s="7">
-        <v>863012</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5" t="s">
+      <c r="N29" s="7">
+        <v>863013</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2865</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2740039</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5088</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3553642</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M30" s="7">
+        <v>7953</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6293682</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="7">
-        <v>510</v>
-      </c>
-      <c r="D24" s="7">
-        <v>645029</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
-        <v>272</v>
-      </c>
-      <c r="I24" s="7">
-        <v>249753</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
-        <v>782</v>
-      </c>
-      <c r="N24" s="7">
-        <v>894781</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="C31" s="7">
+        <v>3375</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3385068</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5360</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3803395</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="7">
+        <v>8735</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7188463</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
